--- a/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.759298507530559</v>
+        <v>0.7842935075765354</v>
       </c>
       <c r="C2">
-        <v>0.3668200295279007</v>
+        <v>0.08908757813522072</v>
       </c>
       <c r="D2">
-        <v>0.3529882636878483</v>
+        <v>0.406754295025209</v>
       </c>
       <c r="E2">
-        <v>0.2463062588015248</v>
+        <v>0.3305308029393856</v>
       </c>
       <c r="F2">
-        <v>6.541115341909602</v>
+        <v>6.734432291841983</v>
       </c>
       <c r="G2">
-        <v>0.0007880856051718128</v>
+        <v>0.0008275347532959011</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4693524914179577</v>
+        <v>0.7789738272995805</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8135968875735173</v>
+        <v>0.5638533116457651</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.505245186532079</v>
+        <v>0.6748317527939776</v>
       </c>
       <c r="C3">
-        <v>0.3124196093125704</v>
+        <v>0.07547448470920415</v>
       </c>
       <c r="D3">
-        <v>0.314357786151291</v>
+        <v>0.3679561973036556</v>
       </c>
       <c r="E3">
-        <v>0.2127714894032167</v>
+        <v>0.2855115355684035</v>
       </c>
       <c r="F3">
-        <v>5.747496233218584</v>
+        <v>5.988977095527446</v>
       </c>
       <c r="G3">
-        <v>0.000798818018898982</v>
+        <v>0.0008364078224813682</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4006889666454256</v>
+        <v>0.6668893243447087</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6971890588824579</v>
+        <v>0.4852925860827924</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.353518090908835</v>
+        <v>0.6094203544855077</v>
       </c>
       <c r="C4">
-        <v>0.2800027494821506</v>
+        <v>0.06739479346776989</v>
       </c>
       <c r="D4">
-        <v>0.2911684519017257</v>
+        <v>0.344451462394062</v>
       </c>
       <c r="E4">
-        <v>0.1927124061799788</v>
+        <v>0.2584503537741369</v>
       </c>
       <c r="F4">
-        <v>5.271523554121131</v>
+        <v>5.538726779488854</v>
       </c>
       <c r="G4">
-        <v>0.0008055307154644208</v>
+        <v>0.0008419776253766989</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3597026829429879</v>
+        <v>0.6000043140675331</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6276443686488804</v>
+        <v>0.438211519609581</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.292603371604088</v>
+        <v>0.5831606032750187</v>
       </c>
       <c r="C5">
-        <v>0.26699978950667</v>
+        <v>0.06416185203865155</v>
       </c>
       <c r="D5">
-        <v>0.2818290606113578</v>
+        <v>0.3349368581932168</v>
       </c>
       <c r="E5">
-        <v>0.1846518071616288</v>
+        <v>0.2475479511259451</v>
       </c>
       <c r="F5">
-        <v>5.079972545216151</v>
+        <v>5.356838283278648</v>
       </c>
       <c r="G5">
-        <v>0.0008083004720372582</v>
+        <v>0.000844280061015698</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3432511423787901</v>
+        <v>0.5731718557223644</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5997175709823424</v>
+        <v>0.4192768279593579</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.282539561624787</v>
+        <v>0.5788225558682427</v>
       </c>
       <c r="C6">
-        <v>0.264852073658389</v>
+        <v>0.0636283365211483</v>
       </c>
       <c r="D6">
-        <v>0.2802843114412354</v>
+        <v>0.3333603734200636</v>
       </c>
       <c r="E6">
-        <v>0.1833196712685492</v>
+        <v>0.2457446084725987</v>
       </c>
       <c r="F6">
-        <v>5.048299517107495</v>
+        <v>5.326724163017275</v>
       </c>
       <c r="G6">
-        <v>0.0008087625499093149</v>
+        <v>0.0008446644111730115</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3405333157333672</v>
+        <v>0.5687402104249344</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.595103348028367</v>
+        <v>0.4161468296939574</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.35269306196588</v>
+        <v>0.6090646738857117</v>
       </c>
       <c r="C7">
-        <v>0.279826598365716</v>
+        <v>0.0673509647130075</v>
       </c>
       <c r="D7">
-        <v>0.2910420787861199</v>
+        <v>0.3443229071472871</v>
       </c>
       <c r="E7">
-        <v>0.1926032628269922</v>
+        <v>0.2583028391249513</v>
       </c>
       <c r="F7">
-        <v>5.268931004100125</v>
+        <v>5.536267678517135</v>
       </c>
       <c r="G7">
-        <v>0.0008055679263556078</v>
+        <v>0.0008420085417312254</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3594798516268085</v>
+        <v>0.5996408053723172</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6272661544458487</v>
+        <v>0.4379551918533764</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.670716159261758</v>
+        <v>0.7461421691122041</v>
       </c>
       <c r="C8">
-        <v>0.3478322924335941</v>
+        <v>0.08432925069979547</v>
       </c>
       <c r="D8">
-        <v>0.3395439578528965</v>
+        <v>0.3933006970165849</v>
       </c>
       <c r="E8">
-        <v>0.2346204225204573</v>
+        <v>0.3148744435618909</v>
       </c>
       <c r="F8">
-        <v>6.264851640228841</v>
+        <v>6.475671139670908</v>
       </c>
       <c r="G8">
-        <v>0.0007917627632323253</v>
+        <v>0.0008305702473073171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4454054073792975</v>
+        <v>0.739885584266176</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7730127650366754</v>
+        <v>0.5365008390468233</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.336344535636783</v>
+        <v>1.032081670174477</v>
       </c>
       <c r="C9">
-        <v>0.4911376359369797</v>
+        <v>0.1203730446992353</v>
       </c>
       <c r="D9">
-        <v>0.4400412724786804</v>
+        <v>0.4926740846867546</v>
       </c>
       <c r="E9">
-        <v>0.3222717376540487</v>
+        <v>0.4314774303354127</v>
       </c>
       <c r="F9">
-        <v>8.330035986894842</v>
+        <v>8.391412312874792</v>
       </c>
       <c r="G9">
-        <v>0.0007654926187537298</v>
+        <v>0.0008090000392580475</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.625532208285172</v>
+        <v>1.033460829141774</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.077898441209285</v>
+        <v>0.7409184248609364</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.86445317998681</v>
+        <v>1.257162333485184</v>
       </c>
       <c r="C10">
-        <v>0.6060318941795515</v>
+        <v>0.1493945710195703</v>
       </c>
       <c r="D10">
-        <v>0.5190931742571365</v>
+        <v>0.5689910008970571</v>
       </c>
       <c r="E10">
-        <v>0.3915846963552312</v>
+        <v>0.5222881285835896</v>
       </c>
       <c r="F10">
-        <v>9.952456961213727</v>
+        <v>9.866510159276089</v>
       </c>
       <c r="G10">
-        <v>0.0007463962326587536</v>
+        <v>0.0007935103386582015</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7687919902046119</v>
+        <v>1.265571848688808</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.319740873134279</v>
+        <v>0.9011100664630831</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.116953235486733</v>
+        <v>1.364022816634019</v>
       </c>
       <c r="C11">
-        <v>0.6613890091479391</v>
+        <v>0.1633812236444783</v>
       </c>
       <c r="D11">
-        <v>0.5567239021905834</v>
+        <v>0.6047626368837768</v>
       </c>
       <c r="E11">
-        <v>0.424661278278549</v>
+        <v>0.5651655301854461</v>
       </c>
       <c r="F11">
-        <v>10.72352824204751</v>
+        <v>10.55822170074902</v>
       </c>
       <c r="G11">
-        <v>0.0007376745035252873</v>
+        <v>0.0007864977711504603</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8374102659083889</v>
+        <v>1.376089993522186</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.435373674487792</v>
+        <v>0.9770085031634679</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214723098829211</v>
+        <v>1.405250315482959</v>
       </c>
       <c r="C12">
-        <v>0.6829011931834543</v>
+        <v>0.1688137365932079</v>
       </c>
       <c r="D12">
-        <v>0.5712690212995994</v>
+        <v>0.6184928545359298</v>
       </c>
       <c r="E12">
-        <v>0.437458302345064</v>
+        <v>0.5816718790684376</v>
       </c>
       <c r="F12">
-        <v>11.021309151781</v>
+        <v>10.82371340194987</v>
       </c>
       <c r="G12">
-        <v>0.0007343587163879395</v>
+        <v>0.0007838428855913487</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8640021776751041</v>
+        <v>1.418784010618168</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.480149512116782</v>
+        <v>1.006268788683926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.193563751778129</v>
+        <v>1.396335261696095</v>
       </c>
       <c r="C13">
-        <v>0.6782417981264075</v>
+        <v>0.1676372838668669</v>
       </c>
       <c r="D13">
-        <v>0.5681223466429515</v>
+        <v>0.6155270391151646</v>
       </c>
       <c r="E13">
-        <v>0.4346892590143625</v>
+        <v>0.5781041699970473</v>
       </c>
       <c r="F13">
-        <v>10.9569002176188</v>
+        <v>10.76636668127531</v>
       </c>
       <c r="G13">
-        <v>0.0007350735571256538</v>
+        <v>0.0007844147093021964</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8582460798238429</v>
+        <v>1.409549219535648</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.470459011739109</v>
+        <v>0.9999424892548774</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.124951140029339</v>
+        <v>1.367398613274872</v>
       </c>
       <c r="C14">
-        <v>0.6631471318520141</v>
+        <v>0.1638252856755571</v>
       </c>
       <c r="D14">
-        <v>0.5579142676971856</v>
+        <v>0.6058883328635716</v>
       </c>
       <c r="E14">
-        <v>0.4257083347153454</v>
+        <v>0.566517835496839</v>
       </c>
       <c r="F14">
-        <v>10.74790404454336</v>
+        <v>10.57998896271693</v>
       </c>
       <c r="G14">
-        <v>0.0007374020256598982</v>
+        <v>0.0007862793663038943</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.839585097967948</v>
+        <v>1.379584711514042</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.439036439402273</v>
+        <v>0.979404830078181</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.083217325905878</v>
+        <v>1.349777129699078</v>
       </c>
       <c r="C15">
-        <v>0.6539762910262255</v>
+        <v>0.1615088029562628</v>
       </c>
       <c r="D15">
-        <v>0.5517017846580359</v>
+        <v>0.6000093953800274</v>
       </c>
       <c r="E15">
-        <v>0.4202442686881298</v>
+        <v>0.5594574147271985</v>
       </c>
       <c r="F15">
-        <v>10.62067672694002</v>
+        <v>10.46630900188666</v>
       </c>
       <c r="G15">
-        <v>0.0007388263125880638</v>
+        <v>0.0007874214669658346</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8282375483971123</v>
+        <v>1.361344742741949</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.419923878775265</v>
+        <v>0.9668952554918846</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.848230074865398</v>
+        <v>1.250278458513407</v>
       </c>
       <c r="C16">
-        <v>0.6024848804428586</v>
+        <v>0.1484982004061095</v>
       </c>
       <c r="D16">
-        <v>0.5166719868309997</v>
+        <v>0.5666771441755714</v>
       </c>
       <c r="E16">
-        <v>0.3894581707723788</v>
+        <v>0.5195211525914374</v>
       </c>
       <c r="F16">
-        <v>9.902814949148961</v>
+        <v>9.821769148673894</v>
       </c>
       <c r="G16">
-        <v>0.0007469648654094751</v>
+        <v>0.0007939689581679781</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7643860721259514</v>
+        <v>1.258459436659933</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.312311654614248</v>
+        <v>0.8962177102547457</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.70746781468705</v>
+        <v>1.190463235833249</v>
       </c>
       <c r="C17">
-        <v>0.571756557531188</v>
+        <v>0.140732957855974</v>
       </c>
       <c r="D17">
-        <v>0.4956459730342431</v>
+        <v>0.5465207717756471</v>
       </c>
       <c r="E17">
-        <v>0.3709999974201423</v>
+        <v>0.4954523226475445</v>
       </c>
       <c r="F17">
-        <v>9.471570872213476</v>
+        <v>9.432049727825074</v>
       </c>
       <c r="G17">
-        <v>0.0007519434469996248</v>
+        <v>0.0007979914594589579</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7261713131004086</v>
+        <v>1.19669443309985</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.247851358614014</v>
+        <v>0.8536902404472144</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.627631751785032</v>
+        <v>1.156471752119558</v>
       </c>
       <c r="C18">
-        <v>0.5543659790152446</v>
+        <v>0.1363388524430462</v>
       </c>
       <c r="D18">
-        <v>0.4837056717773009</v>
+        <v>0.5350244226905829</v>
       </c>
       <c r="E18">
-        <v>0.3605253820099108</v>
+        <v>0.4817530576617344</v>
       </c>
       <c r="F18">
-        <v>9.226566173179975</v>
+        <v>9.209800709545959</v>
       </c>
       <c r="G18">
-        <v>0.0007548042943376318</v>
+        <v>0.0008003085620824459</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7045079548526729</v>
+        <v>1.16162367651998</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.211291586966226</v>
+        <v>0.829508696370354</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.600783454759267</v>
+        <v>1.145030357730093</v>
       </c>
       <c r="C19">
-        <v>0.5485236630472627</v>
+        <v>0.1348628459409582</v>
       </c>
       <c r="D19">
-        <v>0.4796877091587248</v>
+        <v>0.5311477088874312</v>
       </c>
       <c r="E19">
-        <v>0.3570019008672389</v>
+        <v>0.4771382989858211</v>
       </c>
       <c r="F19">
-        <v>9.144104462921518</v>
+        <v>9.134862224415713</v>
       </c>
       <c r="G19">
-        <v>0.0007557726856544761</v>
+        <v>0.0008010938076557575</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6972244643551306</v>
+        <v>1.149823679252052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.198996780979328</v>
+        <v>0.8213668307629902</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.722333005700705</v>
+        <v>1.19678715646009</v>
       </c>
       <c r="C20">
-        <v>0.5749976010218631</v>
+        <v>0.1415519464705852</v>
       </c>
       <c r="D20">
-        <v>0.4978679956820145</v>
+        <v>0.5486561850990768</v>
       </c>
       <c r="E20">
-        <v>0.3729498740197243</v>
+        <v>0.4979992377300348</v>
       </c>
       <c r="F20">
-        <v>9.517156441520257</v>
+        <v>9.473334685257385</v>
       </c>
       <c r="G20">
-        <v>0.0007514138016225265</v>
+        <v>0.0007975629273207329</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.730205816628704</v>
+        <v>1.203221441919254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.254658659868255</v>
+        <v>0.8581879059960684</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.145042372642763</v>
+        <v>1.375876293878548</v>
       </c>
       <c r="C21">
-        <v>0.6675649349936634</v>
+        <v>0.1649410644298968</v>
       </c>
       <c r="D21">
-        <v>0.5609041236844519</v>
+        <v>0.6087141692745206</v>
       </c>
       <c r="E21">
-        <v>0.4283384345829049</v>
+        <v>0.5699133180036782</v>
       </c>
       <c r="F21">
-        <v>10.80912472553166</v>
+        <v>10.63463105224599</v>
       </c>
       <c r="G21">
-        <v>0.0007367185246049314</v>
+        <v>0.0007857316914704967</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8450487839981875</v>
+        <v>1.388361953023406</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.448237569523243</v>
+        <v>0.9854224115174759</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.434102812954848</v>
+        <v>1.497430852283571</v>
       </c>
       <c r="C22">
-        <v>0.7313329178380457</v>
+        <v>0.181034082156998</v>
       </c>
       <c r="D22">
-        <v>0.6038563933281296</v>
+        <v>0.6490584551697509</v>
       </c>
       <c r="E22">
-        <v>0.4661520318607373</v>
+        <v>0.6185107054182453</v>
       </c>
       <c r="F22">
-        <v>11.68790970311443</v>
+        <v>11.41466582271437</v>
       </c>
       <c r="G22">
-        <v>0.0007270332169162508</v>
+        <v>0.0007780004644492872</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9237168925524344</v>
+        <v>1.51435536108994</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.580624919620675</v>
+        <v>1.071652965216011</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.278504190117701</v>
+        <v>1.432097923837659</v>
       </c>
       <c r="C23">
-        <v>0.6969586715730713</v>
+        <v>0.1723623702006023</v>
       </c>
       <c r="D23">
-        <v>0.5807502319196658</v>
+        <v>0.6274138562910423</v>
       </c>
       <c r="E23">
-        <v>0.4458034730286045</v>
+        <v>0.5924106710797616</v>
       </c>
       <c r="F23">
-        <v>11.21533590152882</v>
+        <v>10.99620382174936</v>
       </c>
       <c r="G23">
-        <v>0.0007322129736120411</v>
+        <v>0.0007821282315590978</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8813565416781444</v>
+        <v>1.446603233114899</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.509360229590129</v>
+        <v>1.025317300588924</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.715609085972972</v>
+        <v>1.193926883854033</v>
       </c>
       <c r="C24">
-        <v>0.573531474614299</v>
+        <v>0.1411814646517513</v>
       </c>
       <c r="D24">
-        <v>0.4968629627640553</v>
+        <v>0.5476904811406484</v>
       </c>
       <c r="E24">
-        <v>0.3720679109271074</v>
+        <v>0.4968473501245612</v>
       </c>
       <c r="F24">
-        <v>9.49653817626492</v>
+        <v>9.454664173914864</v>
       </c>
       <c r="G24">
-        <v>0.0007516532580320695</v>
+        <v>0.0007977566522461313</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7283808700265268</v>
+        <v>1.200269224434493</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.251579536805977</v>
+        <v>0.8561536826037397</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.150520366776846</v>
+        <v>0.9524588725725494</v>
       </c>
       <c r="C25">
-        <v>0.4509754146502019</v>
+        <v>0.1102460026077949</v>
       </c>
       <c r="D25">
-        <v>0.4120961537430645</v>
+        <v>0.4653121531914479</v>
       </c>
       <c r="E25">
-        <v>0.297836941607585</v>
+        <v>0.3991657690284072</v>
       </c>
       <c r="F25">
-        <v>7.75589086419032</v>
+        <v>7.863098666337976</v>
       </c>
       <c r="G25">
-        <v>0.0007725402663835732</v>
+        <v>0.0008147592152258477</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5752007491943516</v>
+        <v>0.9515678988676086</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9927961272266757</v>
+        <v>0.6841178241298422</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7842935075765354</v>
+        <v>0.7403253001209862</v>
       </c>
       <c r="C2">
-        <v>0.08908757813522072</v>
+        <v>0.1919872352824825</v>
       </c>
       <c r="D2">
-        <v>0.406754295025209</v>
+        <v>0.05068660507316736</v>
       </c>
       <c r="E2">
-        <v>0.3305308029393856</v>
+        <v>0.3262384289290665</v>
       </c>
       <c r="F2">
-        <v>6.734432291841983</v>
+        <v>0.8830488164318666</v>
       </c>
       <c r="G2">
-        <v>0.0008275347532959011</v>
+        <v>0.8118729041496664</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001234807026361029</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5652671852600122</v>
       </c>
       <c r="K2">
-        <v>0.7789738272995805</v>
+        <v>0.5626127038399247</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5638533116457651</v>
+        <v>0.897326949105576</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5925611719445243</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6748317527939776</v>
+        <v>0.644583694092006</v>
       </c>
       <c r="C3">
-        <v>0.07547448470920415</v>
+        <v>0.1669990747329422</v>
       </c>
       <c r="D3">
-        <v>0.3679561973036556</v>
+        <v>0.04841826408040717</v>
       </c>
       <c r="E3">
-        <v>0.2855115355684035</v>
+        <v>0.2837097098950494</v>
       </c>
       <c r="F3">
-        <v>5.988977095527446</v>
+        <v>0.8263346457963081</v>
       </c>
       <c r="G3">
-        <v>0.0008364078224813682</v>
+        <v>0.7627146094755233</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002496218942429351</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5480728809450994</v>
       </c>
       <c r="K3">
-        <v>0.6668893243447087</v>
+        <v>0.5454175632585248</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4852925860827924</v>
+        <v>0.7814211578780714</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5128027487055888</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6094203544855077</v>
+        <v>0.5857251274359783</v>
       </c>
       <c r="C4">
-        <v>0.06739479346776989</v>
+        <v>0.1519462428235272</v>
       </c>
       <c r="D4">
-        <v>0.344451462394062</v>
+        <v>0.04702167871327845</v>
       </c>
       <c r="E4">
-        <v>0.2584503537741369</v>
+        <v>0.2580693423984641</v>
       </c>
       <c r="F4">
-        <v>5.538726779488854</v>
+        <v>0.7921979585158567</v>
       </c>
       <c r="G4">
-        <v>0.0008419776253766989</v>
+        <v>0.7331252486543463</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003638389627916627</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5379025722249366</v>
       </c>
       <c r="K4">
-        <v>0.6000043140675331</v>
+        <v>0.5350855970229702</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.438211519609581</v>
+        <v>0.7105129966679868</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4643201238694132</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5831606032750187</v>
+        <v>0.5614387762313982</v>
       </c>
       <c r="C5">
-        <v>0.06416185203865155</v>
+        <v>0.1462601326801689</v>
       </c>
       <c r="D5">
-        <v>0.3349368581932168</v>
+        <v>0.04650707717151548</v>
       </c>
       <c r="E5">
-        <v>0.2475479511259451</v>
+        <v>0.2476866990166471</v>
       </c>
       <c r="F5">
-        <v>5.356838283278648</v>
+        <v>0.7772410835031422</v>
       </c>
       <c r="G5">
-        <v>0.000844280061015698</v>
+        <v>0.7198677652158381</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004269488011297895</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5331631955202596</v>
       </c>
       <c r="K5">
-        <v>0.5731718557223644</v>
+        <v>0.5299591043597331</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4192768279593579</v>
+        <v>0.6819526660353574</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4447335808111248</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5788225558682427</v>
+        <v>0.5570666304587348</v>
       </c>
       <c r="C6">
-        <v>0.0636283365211483</v>
+        <v>0.1457896023611767</v>
       </c>
       <c r="D6">
-        <v>0.3333603734200636</v>
+        <v>0.0464900942104336</v>
       </c>
       <c r="E6">
-        <v>0.2457446084725987</v>
+        <v>0.2459205132294926</v>
       </c>
       <c r="F6">
-        <v>5.326724163017275</v>
+        <v>0.7732951399356338</v>
       </c>
       <c r="G6">
-        <v>0.0008446644111730115</v>
+        <v>0.7160429572157057</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004482283694330569</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5315431785024174</v>
       </c>
       <c r="K6">
-        <v>0.5687402104249344</v>
+        <v>0.5279290220038533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4161468296939574</v>
+        <v>0.6775610039708653</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4415654793961323</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6090646738857117</v>
+        <v>0.5844713298458828</v>
       </c>
       <c r="C7">
-        <v>0.0673509647130075</v>
+        <v>0.1531548320178331</v>
       </c>
       <c r="D7">
-        <v>0.3443229071472871</v>
+        <v>0.0472031553525909</v>
       </c>
       <c r="E7">
-        <v>0.2583028391249513</v>
+        <v>0.2577971325307686</v>
       </c>
       <c r="F7">
-        <v>5.536267678517135</v>
+        <v>0.7879733728242968</v>
       </c>
       <c r="G7">
-        <v>0.0008420085417312254</v>
+        <v>0.7284867457134681</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003909609569289429</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5355489934645732</v>
       </c>
       <c r="K7">
-        <v>0.5996408053723172</v>
+        <v>0.5317868291559193</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4379551918533764</v>
+        <v>0.7110802883226484</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4642689173978383</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7461421691122041</v>
+        <v>0.7060816571671467</v>
       </c>
       <c r="C8">
-        <v>0.08432925069979547</v>
+        <v>0.1850220077643172</v>
       </c>
       <c r="D8">
-        <v>0.3933006970165849</v>
+        <v>0.05016110813935271</v>
       </c>
       <c r="E8">
-        <v>0.3148744435618909</v>
+        <v>0.3112923037311859</v>
       </c>
       <c r="F8">
-        <v>6.475671139670908</v>
+        <v>0.8580130500119054</v>
       </c>
       <c r="G8">
-        <v>0.0008305702473073171</v>
+        <v>0.7888839085064348</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001897916466361949</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.556231972374448</v>
       </c>
       <c r="K8">
-        <v>0.739885584266176</v>
+        <v>0.5523645081595276</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5365008390468233</v>
+        <v>0.8585701328429138</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5652291519629244</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.032081670174477</v>
+        <v>0.9460084780136526</v>
       </c>
       <c r="C9">
-        <v>0.1203730446992353</v>
+        <v>0.2478610741392373</v>
       </c>
       <c r="D9">
-        <v>0.4926740846867546</v>
+        <v>0.05559250421407569</v>
       </c>
       <c r="E9">
-        <v>0.4314774303354127</v>
+        <v>0.4208375113361384</v>
       </c>
       <c r="F9">
-        <v>8.391412312874792</v>
+        <v>1.008723923914502</v>
       </c>
       <c r="G9">
-        <v>0.0008090000392580475</v>
+        <v>0.9207119468221947</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007245565958973188</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6042459292820297</v>
       </c>
       <c r="K9">
-        <v>1.033460829141774</v>
+        <v>0.6005319895569698</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7409184248609364</v>
+        <v>1.148801871322064</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.767517108106091</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.257162333485184</v>
+        <v>1.122182061769053</v>
       </c>
       <c r="C10">
-        <v>0.1493945710195703</v>
+        <v>0.2968725505829042</v>
       </c>
       <c r="D10">
-        <v>0.5689910008970571</v>
+        <v>0.05968802783685589</v>
       </c>
       <c r="E10">
-        <v>0.5222881285835896</v>
+        <v>0.5049253818709261</v>
       </c>
       <c r="F10">
-        <v>9.866510159276089</v>
+        <v>1.122272857618569</v>
       </c>
       <c r="G10">
-        <v>0.0007935103386582015</v>
+        <v>1.019675731209318</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002257861728686805</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6409042948582595</v>
       </c>
       <c r="K10">
-        <v>1.265571848688808</v>
+        <v>0.6359551629060007</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9011100664630831</v>
+        <v>1.365202879219851</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9203053709101567</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.364022816634019</v>
+        <v>1.200934605104862</v>
       </c>
       <c r="C11">
-        <v>0.1633812236444783</v>
+        <v>0.3219680840282422</v>
       </c>
       <c r="D11">
-        <v>0.6047626368837768</v>
+        <v>0.06190037981843233</v>
       </c>
       <c r="E11">
-        <v>0.5651655301854461</v>
+        <v>0.543992422224072</v>
       </c>
       <c r="F11">
-        <v>10.55822170074902</v>
+        <v>1.168633935452249</v>
       </c>
       <c r="G11">
-        <v>0.0007864977711504603</v>
+        <v>1.058582917883058</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003889001048158924</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6545324144290134</v>
       </c>
       <c r="K11">
-        <v>1.376089993522186</v>
+        <v>0.6472786758153433</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9770085031634679</v>
+        <v>1.466075499190339</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9913228218926307</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.405250315482959</v>
+        <v>1.231644234255924</v>
       </c>
       <c r="C12">
-        <v>0.1688137365932079</v>
+        <v>0.3304120171344493</v>
       </c>
       <c r="D12">
-        <v>0.6184928545359298</v>
+        <v>0.06255823853704356</v>
       </c>
       <c r="E12">
-        <v>0.5816718790684376</v>
+        <v>0.5590767532814596</v>
       </c>
       <c r="F12">
-        <v>10.82371340194987</v>
+        <v>1.189908996640128</v>
       </c>
       <c r="G12">
-        <v>0.0007838428855913487</v>
+        <v>1.077392561778041</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004407805286678723</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6617690380289076</v>
       </c>
       <c r="K12">
-        <v>1.418784010618168</v>
+        <v>0.6544268062354561</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.006268788683926</v>
+        <v>1.503568483141066</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.018232266461062</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.396335261696095</v>
+        <v>1.225199456843455</v>
       </c>
       <c r="C13">
-        <v>0.1676372838668669</v>
+        <v>0.3283544351488956</v>
       </c>
       <c r="D13">
-        <v>0.6155270391151646</v>
+        <v>0.06237965705426518</v>
       </c>
       <c r="E13">
-        <v>0.5781041699970473</v>
+        <v>0.5558441589029997</v>
       </c>
       <c r="F13">
-        <v>10.76636668127531</v>
+        <v>1.186022764341914</v>
       </c>
       <c r="G13">
-        <v>0.0007844147093021964</v>
+        <v>1.07411305310832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004251583041622986</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6606016976938349</v>
       </c>
       <c r="K13">
-        <v>1.409549219535648</v>
+        <v>0.6534435862160635</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9999424892548774</v>
+        <v>1.49531635111029</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.012391872309067</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.367398613274872</v>
+        <v>1.203532794598232</v>
       </c>
       <c r="C14">
-        <v>0.1638252856755571</v>
+        <v>0.322561157393352</v>
       </c>
       <c r="D14">
-        <v>0.6058883328635716</v>
+        <v>0.0619388468545452</v>
       </c>
       <c r="E14">
-        <v>0.566517835496839</v>
+        <v>0.5452400646303204</v>
       </c>
       <c r="F14">
-        <v>10.57998896271693</v>
+        <v>1.170679462672553</v>
       </c>
       <c r="G14">
-        <v>0.0007862793663038943</v>
+        <v>1.060457794183819</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003912308705873002</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6552938257736542</v>
       </c>
       <c r="K14">
-        <v>1.379584711514042</v>
+        <v>0.6481028993992837</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.979404830078181</v>
+        <v>1.469084598030406</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9935173520388219</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349777129699078</v>
+        <v>1.189931144066236</v>
       </c>
       <c r="C15">
-        <v>0.1615088029562628</v>
+        <v>0.3194874698032208</v>
       </c>
       <c r="D15">
-        <v>0.6000093953800274</v>
+        <v>0.06174141260279242</v>
       </c>
       <c r="E15">
-        <v>0.5594574147271985</v>
+        <v>0.538720493272173</v>
       </c>
       <c r="F15">
-        <v>10.46630900188666</v>
+        <v>1.159921775526286</v>
       </c>
       <c r="G15">
-        <v>0.0007874214669658346</v>
+        <v>1.050584506120089</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003800885405389032</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.651277224771448</v>
       </c>
       <c r="K15">
-        <v>1.361344742741949</v>
+        <v>0.6437406884954058</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9668952554918846</v>
+        <v>1.453372093313789</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9820532780368794</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.250278458513407</v>
+        <v>1.114219420566513</v>
       </c>
       <c r="C16">
-        <v>0.1484982004061095</v>
+        <v>0.2991165642690561</v>
       </c>
       <c r="D16">
-        <v>0.5666771441755714</v>
+        <v>0.06014748089201305</v>
       </c>
       <c r="E16">
-        <v>0.5195211525914374</v>
+        <v>0.5019982049332796</v>
       </c>
       <c r="F16">
-        <v>9.821769148673894</v>
+        <v>1.10756724133644</v>
       </c>
       <c r="G16">
-        <v>0.0007939689581679781</v>
+        <v>1.004206624863514</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002829000310814678</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6334479670918967</v>
       </c>
       <c r="K16">
-        <v>1.258459436659933</v>
+        <v>0.625926528121866</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8962177102547457</v>
+        <v>1.361456923856053</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9162892009971983</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.190463235833249</v>
+        <v>1.067849884609018</v>
       </c>
       <c r="C17">
-        <v>0.140732957855974</v>
+        <v>0.2867662565001297</v>
       </c>
       <c r="D17">
-        <v>0.5465207717756471</v>
+        <v>0.05916784901300076</v>
       </c>
       <c r="E17">
-        <v>0.4954523226475445</v>
+        <v>0.4797537867401687</v>
       </c>
       <c r="F17">
-        <v>9.432049727825074</v>
+        <v>1.075854944912123</v>
       </c>
       <c r="G17">
-        <v>0.0007979914594589579</v>
+        <v>0.9761366455182809</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002395018744218547</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6227146416505747</v>
       </c>
       <c r="K17">
-        <v>1.19669443309985</v>
+        <v>0.6151615145770606</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8536902404472144</v>
+        <v>1.30528563277079</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8762629895672021</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.156471752119558</v>
+        <v>1.042052980132922</v>
       </c>
       <c r="C18">
-        <v>0.1363388524430462</v>
+        <v>0.2785384042604733</v>
       </c>
       <c r="D18">
-        <v>0.5350244226905829</v>
+        <v>0.05842069108633297</v>
       </c>
       <c r="E18">
-        <v>0.4817530576617344</v>
+        <v>0.4671761012250499</v>
       </c>
       <c r="F18">
-        <v>9.209800709545959</v>
+        <v>1.061287966223446</v>
       </c>
       <c r="G18">
-        <v>0.0008003085620824459</v>
+        <v>0.9640304600080327</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001959454324228282</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.618599760583038</v>
       </c>
       <c r="K18">
-        <v>1.16162367651998</v>
+        <v>0.6118292809313317</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.829508696370354</v>
+        <v>1.272193471577026</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8531667911533205</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145030357730093</v>
+        <v>1.032667376375969</v>
       </c>
       <c r="C19">
-        <v>0.1348628459409582</v>
+        <v>0.2766665118729463</v>
       </c>
       <c r="D19">
-        <v>0.5311477088874312</v>
+        <v>0.05830865417316744</v>
       </c>
       <c r="E19">
-        <v>0.4771382989858211</v>
+        <v>0.4628413832386329</v>
       </c>
       <c r="F19">
-        <v>9.134862224415713</v>
+        <v>1.053653997974067</v>
       </c>
       <c r="G19">
-        <v>0.0008010938076557575</v>
+        <v>0.9569389432874829</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002005423909431592</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6156853506118267</v>
       </c>
       <c r="K19">
-        <v>1.149823679252052</v>
+        <v>0.6085476132019139</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8213668307629902</v>
+        <v>1.261661433512245</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8455055387205874</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.19678715646009</v>
+        <v>1.072850124016981</v>
       </c>
       <c r="C20">
-        <v>0.1415519464705852</v>
+        <v>0.2879833351519494</v>
       </c>
       <c r="D20">
-        <v>0.5486561850990768</v>
+        <v>0.05925778164699835</v>
       </c>
       <c r="E20">
-        <v>0.4979992377300348</v>
+        <v>0.4821209214475672</v>
       </c>
       <c r="F20">
-        <v>9.473334685257385</v>
+        <v>1.079493190778607</v>
       </c>
       <c r="G20">
-        <v>0.0007975629273207329</v>
+        <v>0.9794174241616531</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002416040007466869</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6240055939788363</v>
       </c>
       <c r="K20">
-        <v>1.203221441919254</v>
+        <v>0.6165213298692436</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8581879059960684</v>
+        <v>1.311190236821801</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.880498122648909</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.375876293878548</v>
+        <v>1.208936672071047</v>
       </c>
       <c r="C21">
-        <v>0.1649410644298968</v>
+        <v>0.3255763330577963</v>
       </c>
       <c r="D21">
-        <v>0.6087141692745206</v>
+        <v>0.0622753587087459</v>
       </c>
       <c r="E21">
-        <v>0.5699133180036782</v>
+        <v>0.5482149476033058</v>
       </c>
       <c r="F21">
-        <v>10.63463105224599</v>
+        <v>1.171226537938509</v>
       </c>
       <c r="G21">
-        <v>0.0007857316914704967</v>
+        <v>1.060090211583329</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004248259693308221</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6546307929992707</v>
       </c>
       <c r="K21">
-        <v>1.388361953023406</v>
+        <v>0.6465350538890462</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9854224115174759</v>
+        <v>1.477743290873377</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9992568867195359</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.497430852283571</v>
+        <v>1.299394869947605</v>
       </c>
       <c r="C22">
-        <v>0.181034082156998</v>
+        <v>0.3489988174007692</v>
       </c>
       <c r="D22">
-        <v>0.6490584551697509</v>
+        <v>0.06397907130133973</v>
       </c>
       <c r="E22">
-        <v>0.6185107054182453</v>
+        <v>0.5926010635789538</v>
       </c>
       <c r="F22">
-        <v>11.41466582271437</v>
+        <v>1.23762930655738</v>
       </c>
       <c r="G22">
-        <v>0.0007780004644492872</v>
+        <v>1.119715407175406</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005699339920408164</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6781772906471843</v>
       </c>
       <c r="K22">
-        <v>1.51435536108994</v>
+        <v>0.6707046365495302</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.071652965216011</v>
+        <v>1.586171586524785</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.077765564899046</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.432097923837659</v>
+        <v>1.252242234315787</v>
       </c>
       <c r="C23">
-        <v>0.1723623702006023</v>
+        <v>0.3348605232698674</v>
       </c>
       <c r="D23">
-        <v>0.6274138562910423</v>
+        <v>0.06282075168982715</v>
       </c>
       <c r="E23">
-        <v>0.5924106710797616</v>
+        <v>0.5689733759015425</v>
       </c>
       <c r="F23">
-        <v>10.99620382174936</v>
+        <v>1.206820059799014</v>
       </c>
       <c r="G23">
-        <v>0.0007821282315590978</v>
+        <v>1.093037976522297</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004601825257287473</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6682181813746553</v>
       </c>
       <c r="K23">
-        <v>1.446603233114899</v>
+        <v>0.6615328073822582</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.025317300588924</v>
+        <v>1.527067307543604</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.03550787291033</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.193926883854033</v>
+        <v>1.072390679958744</v>
       </c>
       <c r="C24">
-        <v>0.1411814646517513</v>
+        <v>0.2849506266794606</v>
       </c>
       <c r="D24">
-        <v>0.5476904811406484</v>
+        <v>0.05883038859046508</v>
       </c>
       <c r="E24">
-        <v>0.4968473501245612</v>
+        <v>0.4813038701452257</v>
       </c>
       <c r="F24">
-        <v>9.454664173914864</v>
+        <v>1.085335417602209</v>
       </c>
       <c r="G24">
-        <v>0.0007977566522461313</v>
+        <v>0.986217769582737</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001935003312504513</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6276331087153864</v>
       </c>
       <c r="K24">
-        <v>1.200269224434493</v>
+        <v>0.621851904827551</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8561536826037397</v>
+        <v>1.30670840602096</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8781975148647376</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9524588725725494</v>
+        <v>0.8793488151011104</v>
       </c>
       <c r="C25">
-        <v>0.1102460026077949</v>
+        <v>0.2328991769640538</v>
       </c>
       <c r="D25">
-        <v>0.4653121531914479</v>
+        <v>0.05448730611403008</v>
       </c>
       <c r="E25">
-        <v>0.3991657690284072</v>
+        <v>0.3903908025573273</v>
       </c>
       <c r="F25">
-        <v>7.863098666337976</v>
+        <v>0.9599068935416852</v>
       </c>
       <c r="G25">
-        <v>0.0008147592152258477</v>
+        <v>0.8763049963862954</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001086877141496245</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5867407408212415</v>
       </c>
       <c r="K25">
-        <v>0.9515678988676086</v>
+        <v>0.5814378686588952</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6841178241298422</v>
+        <v>1.071643355706783</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7125512498673672</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7403253001209862</v>
+        <v>0.7219270709576335</v>
       </c>
       <c r="C2">
-        <v>0.1919872352824825</v>
+        <v>0.2241106928742482</v>
       </c>
       <c r="D2">
-        <v>0.05068660507316736</v>
+        <v>0.05538743340183316</v>
       </c>
       <c r="E2">
-        <v>0.3262384289290665</v>
+        <v>0.3230501355094191</v>
       </c>
       <c r="F2">
-        <v>0.8830488164318666</v>
+        <v>0.7581924376228528</v>
       </c>
       <c r="G2">
-        <v>0.8118729041496664</v>
+        <v>0.6557657848424157</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001234807026361029</v>
+        <v>0.0008689833652475443</v>
       </c>
       <c r="J2">
-        <v>0.5652671852600122</v>
+        <v>0.5222139829455159</v>
       </c>
       <c r="K2">
-        <v>0.5626127038399247</v>
+        <v>0.4553917588968446</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2173772551509536</v>
       </c>
       <c r="M2">
-        <v>0.897326949105576</v>
+        <v>0.1312504141455051</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5925611719445243</v>
+        <v>0.9297457795103981</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6003477627250078</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.644583694092006</v>
+        <v>0.631616305367686</v>
       </c>
       <c r="C3">
-        <v>0.1669990747329422</v>
+        <v>0.1920153328769914</v>
       </c>
       <c r="D3">
-        <v>0.04841826408040717</v>
+        <v>0.05155519617725446</v>
       </c>
       <c r="E3">
-        <v>0.2837097098950494</v>
+        <v>0.2812382701468437</v>
       </c>
       <c r="F3">
-        <v>0.8263346457963081</v>
+        <v>0.7177834838051638</v>
       </c>
       <c r="G3">
-        <v>0.7627146094755233</v>
+        <v>0.6263132592144416</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002496218942429351</v>
+        <v>0.001611214672280425</v>
       </c>
       <c r="J3">
-        <v>0.5480728809450994</v>
+        <v>0.509079440128076</v>
       </c>
       <c r="K3">
-        <v>0.5454175632585248</v>
+        <v>0.4494799235297968</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2203362494450012</v>
       </c>
       <c r="M3">
-        <v>0.7814211578780714</v>
+        <v>0.124858472094278</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5128027487055888</v>
+        <v>0.8093267124201589</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5195557972958298</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5857251274359783</v>
+        <v>0.5759750221634476</v>
       </c>
       <c r="C4">
-        <v>0.1519462428235272</v>
+        <v>0.1727272375923263</v>
       </c>
       <c r="D4">
-        <v>0.04702167871327845</v>
+        <v>0.04922080027008491</v>
       </c>
       <c r="E4">
-        <v>0.2580693423984641</v>
+        <v>0.2560257029660349</v>
       </c>
       <c r="F4">
-        <v>0.7921979585158567</v>
+        <v>0.6934089182256216</v>
       </c>
       <c r="G4">
-        <v>0.7331252486543463</v>
+        <v>0.6087905162043228</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003638389627916627</v>
+        <v>0.002348599798393636</v>
       </c>
       <c r="J4">
-        <v>0.5379025722249366</v>
+        <v>0.5010320768236056</v>
       </c>
       <c r="K4">
-        <v>0.5350855970229702</v>
+        <v>0.4459323655236247</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2220577415857683</v>
       </c>
       <c r="M4">
-        <v>0.7105129966679868</v>
+        <v>0.1216182283839267</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4643201238694132</v>
+        <v>0.7356137535619638</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4703949935260141</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5614387762313982</v>
+        <v>0.5529963216417286</v>
       </c>
       <c r="C5">
-        <v>0.1462601326801689</v>
+        <v>0.1653635744933837</v>
       </c>
       <c r="D5">
-        <v>0.04650707717151548</v>
+        <v>0.04833784640316807</v>
       </c>
       <c r="E5">
-        <v>0.2476866990166471</v>
+        <v>0.2458182431513194</v>
       </c>
       <c r="F5">
-        <v>0.7772410835031422</v>
+        <v>0.6825490537534193</v>
       </c>
       <c r="G5">
-        <v>0.7198677652158381</v>
+        <v>0.6006708623418433</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004269488011297895</v>
+        <v>0.002805051118675905</v>
       </c>
       <c r="J5">
-        <v>0.5331631955202596</v>
+        <v>0.4971620560935719</v>
       </c>
       <c r="K5">
-        <v>0.5299591043597331</v>
+        <v>0.4437270359704044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2223790000587371</v>
       </c>
       <c r="M5">
-        <v>0.6819526660353574</v>
+        <v>0.1202393450685229</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4447335808111248</v>
+        <v>0.7058872987103086</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4505180847740249</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5570666304587348</v>
+        <v>0.5488690099640223</v>
       </c>
       <c r="C6">
-        <v>0.1457896023611767</v>
+        <v>0.1646369904637197</v>
       </c>
       <c r="D6">
-        <v>0.0464900942104336</v>
+        <v>0.04827023798350893</v>
       </c>
       <c r="E6">
-        <v>0.2459205132294926</v>
+        <v>0.2440851414879788</v>
       </c>
       <c r="F6">
-        <v>0.7732951399356338</v>
+        <v>0.6794982407141745</v>
       </c>
       <c r="G6">
-        <v>0.7160429572157057</v>
+        <v>0.597978547291504</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004482283694330569</v>
+        <v>0.003002209941568523</v>
       </c>
       <c r="J6">
-        <v>0.5315431785024174</v>
+        <v>0.4957953564044431</v>
       </c>
       <c r="K6">
-        <v>0.5279290220038533</v>
+        <v>0.442413750997293</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.221997259272495</v>
       </c>
       <c r="M6">
-        <v>0.6775610039708653</v>
+        <v>0.1197416876378377</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4415654793961323</v>
+        <v>0.701280918621066</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4472955895056501</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5844713298458828</v>
+        <v>0.5750146832268399</v>
       </c>
       <c r="C7">
-        <v>0.1531548320178331</v>
+        <v>0.1735688834247213</v>
       </c>
       <c r="D7">
-        <v>0.0472031553525909</v>
+        <v>0.0495606370018038</v>
       </c>
       <c r="E7">
-        <v>0.2577971325307686</v>
+        <v>0.2557940739196809</v>
       </c>
       <c r="F7">
-        <v>0.7879733728242968</v>
+        <v>0.6878131993937728</v>
       </c>
       <c r="G7">
-        <v>0.7284867457134681</v>
+        <v>0.6076279570226433</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003909609569289429</v>
+        <v>0.002660374163649948</v>
       </c>
       <c r="J7">
-        <v>0.5355489934645732</v>
+        <v>0.4927658527698213</v>
       </c>
       <c r="K7">
-        <v>0.5317868291559193</v>
+        <v>0.4421570317031147</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2203824778697765</v>
       </c>
       <c r="M7">
-        <v>0.7110802883226484</v>
+        <v>0.1204634677421978</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4642689173978383</v>
+        <v>0.7357869807470081</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4702537493343613</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7060816571671467</v>
+        <v>0.6903480391768539</v>
       </c>
       <c r="C8">
-        <v>0.1850220077643172</v>
+        <v>0.2133939039766659</v>
       </c>
       <c r="D8">
-        <v>0.05016110813935271</v>
+        <v>0.05482497662480768</v>
       </c>
       <c r="E8">
-        <v>0.3112923037311859</v>
+        <v>0.3084598591383454</v>
       </c>
       <c r="F8">
-        <v>0.8580130500119054</v>
+        <v>0.7329656940757872</v>
       </c>
       <c r="G8">
-        <v>0.7888839085064348</v>
+        <v>0.6494689177568063</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001897916466361949</v>
+        <v>0.001429778667780823</v>
       </c>
       <c r="J8">
-        <v>0.556231972374448</v>
+        <v>0.4947057475166332</v>
       </c>
       <c r="K8">
-        <v>0.5523645081595276</v>
+        <v>0.4461673895115936</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2154077784402091</v>
       </c>
       <c r="M8">
-        <v>0.8585701328429138</v>
+        <v>0.1265230203865251</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5652291519629244</v>
+        <v>0.8882838790104017</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5724059713039722</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9460084780136526</v>
+        <v>0.91606524902096</v>
       </c>
       <c r="C9">
-        <v>0.2478610741392373</v>
+        <v>0.2942283025462871</v>
       </c>
       <c r="D9">
-        <v>0.05559250421407569</v>
+        <v>0.06441424206192181</v>
       </c>
       <c r="E9">
-        <v>0.4208375113361384</v>
+        <v>0.4161301443216132</v>
       </c>
       <c r="F9">
-        <v>1.008723923914502</v>
+        <v>0.8389437202149281</v>
       </c>
       <c r="G9">
-        <v>0.9207119468221947</v>
+        <v>0.7335675555224412</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007245565958973188</v>
+        <v>0.0009575726333226342</v>
       </c>
       <c r="J9">
-        <v>0.6042459292820297</v>
+        <v>0.5244092238815199</v>
       </c>
       <c r="K9">
-        <v>0.6005319895569698</v>
+        <v>0.4636002398101695</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2086805115673656</v>
       </c>
       <c r="M9">
-        <v>1.148801871322064</v>
+        <v>0.1467758496481437</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.767517108106091</v>
+        <v>1.189217934657307</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.776887195028138</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.122182061769053</v>
+        <v>1.082237027927334</v>
       </c>
       <c r="C10">
-        <v>0.2968725505829042</v>
+        <v>0.3546804047697094</v>
       </c>
       <c r="D10">
-        <v>0.05968802783685589</v>
+        <v>0.07261177348739523</v>
       </c>
       <c r="E10">
-        <v>0.5049253818709261</v>
+        <v>0.4988778904067246</v>
       </c>
       <c r="F10">
-        <v>1.122272857618569</v>
+        <v>0.9067615806360294</v>
       </c>
       <c r="G10">
-        <v>1.019675731209318</v>
+        <v>0.8136766798297259</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002257861728686805</v>
+        <v>0.002460600102175192</v>
       </c>
       <c r="J10">
-        <v>0.6409042948582595</v>
+        <v>0.5113808545375633</v>
       </c>
       <c r="K10">
-        <v>0.6359551629060007</v>
+        <v>0.469531013529398</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2006266127946894</v>
       </c>
       <c r="M10">
-        <v>1.365202879219851</v>
+        <v>0.1621878934818177</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9203053709101567</v>
+        <v>1.411068524057441</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9304255829171808</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.200934605104862</v>
+        <v>1.158516691153721</v>
       </c>
       <c r="C11">
-        <v>0.3219680840282422</v>
+        <v>0.380776900735782</v>
       </c>
       <c r="D11">
-        <v>0.06190037981843233</v>
+        <v>0.07847472493890706</v>
       </c>
       <c r="E11">
-        <v>0.543992422224072</v>
+        <v>0.5376023418225842</v>
       </c>
       <c r="F11">
-        <v>1.168633935452249</v>
+        <v>0.9127898507015288</v>
       </c>
       <c r="G11">
-        <v>1.058582917883058</v>
+        <v>0.8743983626762457</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003889001048158924</v>
+        <v>0.00397374766939862</v>
       </c>
       <c r="J11">
-        <v>0.6545324144290134</v>
+        <v>0.4480159765900567</v>
       </c>
       <c r="K11">
-        <v>0.6472786758153433</v>
+        <v>0.4574999436715643</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1918427737428523</v>
       </c>
       <c r="M11">
-        <v>1.466075499190339</v>
+        <v>0.1637974467602312</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9913228218926307</v>
+        <v>1.510666919571946</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.000797299440649</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.231644234255924</v>
+        <v>1.188458713437711</v>
       </c>
       <c r="C12">
-        <v>0.3304120171344493</v>
+        <v>0.3889694240172048</v>
       </c>
       <c r="D12">
-        <v>0.06255823853704356</v>
+        <v>0.08072185265188381</v>
       </c>
       <c r="E12">
-        <v>0.5590767532814596</v>
+        <v>0.5525766611025986</v>
       </c>
       <c r="F12">
-        <v>1.189908996640128</v>
+        <v>0.9155291216929839</v>
       </c>
       <c r="G12">
-        <v>1.077392561778041</v>
+        <v>0.9048953732110903</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004407805286678723</v>
+        <v>0.004371027550635453</v>
       </c>
       <c r="J12">
-        <v>0.6617690380289076</v>
+        <v>0.4208236540577843</v>
       </c>
       <c r="K12">
-        <v>0.6544268062354561</v>
+        <v>0.4537156017897033</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1888457445874145</v>
       </c>
       <c r="M12">
-        <v>1.503568483141066</v>
+        <v>0.164741941174249</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.018232266461062</v>
+        <v>1.547240616675907</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.027341220084004</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.225199456843455</v>
+        <v>1.182150147503307</v>
       </c>
       <c r="C13">
-        <v>0.3283544351488956</v>
+        <v>0.3869783687411825</v>
       </c>
       <c r="D13">
-        <v>0.06237965705426518</v>
+        <v>0.0801793111525626</v>
       </c>
       <c r="E13">
-        <v>0.5558441589029997</v>
+        <v>0.5493640582452812</v>
       </c>
       <c r="F13">
-        <v>1.186022764341914</v>
+        <v>0.9156089180890632</v>
       </c>
       <c r="G13">
-        <v>1.07411305310832</v>
+        <v>0.8987767181216952</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004251583041622986</v>
+        <v>0.004232751338227203</v>
       </c>
       <c r="J13">
-        <v>0.6606016976938349</v>
+        <v>0.427100038580889</v>
       </c>
       <c r="K13">
-        <v>0.6534435862160635</v>
+        <v>0.454992419458911</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1896466944572168</v>
       </c>
       <c r="M13">
-        <v>1.49531635111029</v>
+        <v>0.1647272934179576</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.012391872309067</v>
+        <v>1.539217373930654</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.021587941369845</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.203532794598232</v>
+        <v>1.161039132394507</v>
       </c>
       <c r="C14">
-        <v>0.322561157393352</v>
+        <v>0.3813549311327051</v>
       </c>
       <c r="D14">
-        <v>0.0619388468545452</v>
+        <v>0.07863469622607511</v>
       </c>
       <c r="E14">
-        <v>0.5452400646303204</v>
+        <v>0.5388393331850807</v>
       </c>
       <c r="F14">
-        <v>1.170679462672553</v>
+        <v>0.9133036483496824</v>
       </c>
       <c r="G14">
-        <v>1.060457794183819</v>
+        <v>0.8770923229266288</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003912308705873002</v>
+        <v>0.003983569549179222</v>
       </c>
       <c r="J14">
-        <v>0.6552938257736542</v>
+        <v>0.4459702817353985</v>
       </c>
       <c r="K14">
-        <v>0.6481028993992837</v>
+        <v>0.4573876122287359</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1916636612236893</v>
       </c>
       <c r="M14">
-        <v>1.469084598030406</v>
+        <v>0.1639559649232574</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9935173520388219</v>
+        <v>1.513614024575418</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.002965470072596</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.189931144066236</v>
+        <v>1.147845685928672</v>
       </c>
       <c r="C15">
-        <v>0.3194874698032208</v>
+        <v>0.3783391342950324</v>
       </c>
       <c r="D15">
-        <v>0.06174141260279242</v>
+        <v>0.07781254481025712</v>
       </c>
       <c r="E15">
-        <v>0.538720493272173</v>
+        <v>0.5323769379102288</v>
       </c>
       <c r="F15">
-        <v>1.159921775526286</v>
+        <v>0.9104599592127585</v>
       </c>
       <c r="G15">
-        <v>1.050584506120089</v>
+        <v>0.8631246494001488</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003800885405389032</v>
+        <v>0.003942676515134913</v>
       </c>
       <c r="J15">
-        <v>0.651277224771448</v>
+        <v>0.4564543244856623</v>
       </c>
       <c r="K15">
-        <v>0.6437406884954058</v>
+        <v>0.4578784196523955</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1925678335249721</v>
       </c>
       <c r="M15">
-        <v>1.453372093313789</v>
+        <v>0.1630901138723786</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9820532780368794</v>
+        <v>1.49820519161986</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9916335518525941</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.114219420566513</v>
+        <v>1.074751890451523</v>
       </c>
       <c r="C16">
-        <v>0.2991165642690561</v>
+        <v>0.35703420726486</v>
       </c>
       <c r="D16">
-        <v>0.06014748089201305</v>
+        <v>0.07299677000306559</v>
       </c>
       <c r="E16">
-        <v>0.5019982049332796</v>
+        <v>0.4960143229222069</v>
       </c>
       <c r="F16">
-        <v>1.10756724133644</v>
+        <v>0.896492231962668</v>
       </c>
       <c r="G16">
-        <v>1.004206624863514</v>
+        <v>0.7996939631275524</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002829000310814678</v>
+        <v>0.003186645858204606</v>
       </c>
       <c r="J16">
-        <v>0.6334479670918967</v>
+        <v>0.5097742039186244</v>
       </c>
       <c r="K16">
-        <v>0.625926528121866</v>
+        <v>0.4631886806407408</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1986779932017946</v>
       </c>
       <c r="M16">
-        <v>1.361456923856053</v>
+        <v>0.1592478508463131</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9162892009971983</v>
+        <v>1.407193617564047</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9263945909790863</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.067849884609018</v>
+        <v>1.03040273421098</v>
       </c>
       <c r="C17">
-        <v>0.2867662565001297</v>
+        <v>0.3431635295816875</v>
       </c>
       <c r="D17">
-        <v>0.05916784901300076</v>
+        <v>0.07043061959982566</v>
       </c>
       <c r="E17">
-        <v>0.4797537867401687</v>
+        <v>0.47404208841008</v>
       </c>
       <c r="F17">
-        <v>1.075854944912123</v>
+        <v>0.8837993515492713</v>
       </c>
       <c r="G17">
-        <v>0.9761366455182809</v>
+        <v>0.7677574132736567</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002395018744218547</v>
+        <v>0.00283272596221984</v>
       </c>
       <c r="J17">
-        <v>0.6227146416505747</v>
+        <v>0.5319887856113894</v>
       </c>
       <c r="K17">
-        <v>0.6151615145770606</v>
+        <v>0.4641644538310956</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2016624987629321</v>
       </c>
       <c r="M17">
-        <v>1.30528563277079</v>
+        <v>0.1560830727355658</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8762629895672021</v>
+        <v>1.350762887835884</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.886468912461666</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.042052980132922</v>
+        <v>1.00582601735465</v>
       </c>
       <c r="C18">
-        <v>0.2785384042604733</v>
+        <v>0.3336493413099504</v>
       </c>
       <c r="D18">
-        <v>0.05842069108633297</v>
+        <v>0.06886667601547458</v>
       </c>
       <c r="E18">
-        <v>0.4671761012250499</v>
+        <v>0.4616279415371949</v>
       </c>
       <c r="F18">
-        <v>1.061287966223446</v>
+        <v>0.87794659875496</v>
       </c>
       <c r="G18">
-        <v>0.9640304600080327</v>
+        <v>0.7548898936674817</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001959454324228282</v>
+        <v>0.002373513529665416</v>
       </c>
       <c r="J18">
-        <v>0.618599760583038</v>
+        <v>0.542102515611731</v>
       </c>
       <c r="K18">
-        <v>0.6118292809313317</v>
+        <v>0.4660347169765231</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.203865044994167</v>
       </c>
       <c r="M18">
-        <v>1.272193471577026</v>
+        <v>0.154816084390859</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8531667911533205</v>
+        <v>1.317281572024143</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8633661765387757</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.032667376375969</v>
+        <v>0.9969420292411257</v>
       </c>
       <c r="C19">
-        <v>0.2766665118729463</v>
+        <v>0.3313472049648851</v>
       </c>
       <c r="D19">
-        <v>0.05830865417316744</v>
+        <v>0.06852641581262731</v>
       </c>
       <c r="E19">
-        <v>0.4628413832386329</v>
+        <v>0.45736014305335</v>
       </c>
       <c r="F19">
-        <v>1.053653997974067</v>
+        <v>0.8734700653055114</v>
       </c>
       <c r="G19">
-        <v>0.9569389432874829</v>
+        <v>0.7484819177117998</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002005423909431592</v>
+        <v>0.002448459712714346</v>
       </c>
       <c r="J19">
-        <v>0.6156853506118267</v>
+        <v>0.543530893725773</v>
       </c>
       <c r="K19">
-        <v>0.6085476132019139</v>
+        <v>0.4648862754682952</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2039633833488956</v>
       </c>
       <c r="M19">
-        <v>1.261661433512245</v>
+        <v>0.1537022371056231</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8455055387205874</v>
+        <v>1.306535966463656</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8556807607689336</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.072850124016981</v>
+        <v>1.035166317711486</v>
       </c>
       <c r="C20">
-        <v>0.2879833351519494</v>
+        <v>0.3445711911088551</v>
       </c>
       <c r="D20">
-        <v>0.05925778164699835</v>
+        <v>0.07067280682767318</v>
       </c>
       <c r="E20">
-        <v>0.4821209214475672</v>
+        <v>0.4763774896905772</v>
       </c>
       <c r="F20">
-        <v>1.079493190778607</v>
+        <v>0.8855315384273865</v>
       </c>
       <c r="G20">
-        <v>0.9794174241616531</v>
+        <v>0.7711580728839067</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002416040007466869</v>
+        <v>0.00284285507703963</v>
       </c>
       <c r="J20">
-        <v>0.6240055939788363</v>
+        <v>0.5301836086123046</v>
       </c>
       <c r="K20">
-        <v>0.6165213298692436</v>
+        <v>0.4643121871387592</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2014344601864728</v>
       </c>
       <c r="M20">
-        <v>1.311190236821801</v>
+        <v>0.156514197428983</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.880498122648909</v>
+        <v>1.356728418298616</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8907023199088258</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.208936672071047</v>
+        <v>1.167122362962658</v>
       </c>
       <c r="C21">
-        <v>0.3255763330577963</v>
+        <v>0.3828334887980418</v>
       </c>
       <c r="D21">
-        <v>0.0622753587087459</v>
+        <v>0.07993926750511093</v>
       </c>
       <c r="E21">
-        <v>0.5482149476033058</v>
+        <v>0.5419054286633056</v>
       </c>
       <c r="F21">
-        <v>1.171226537938509</v>
+        <v>0.9037430973790492</v>
       </c>
       <c r="G21">
-        <v>1.060090211583329</v>
+        <v>0.8901099060536808</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.004248259693308221</v>
+        <v>0.004336811512659189</v>
       </c>
       <c r="J21">
-        <v>0.6546307929992707</v>
+        <v>0.4210824740319623</v>
       </c>
       <c r="K21">
-        <v>0.6465350538890462</v>
+        <v>0.4505644804996649</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1889675932494939</v>
       </c>
       <c r="M21">
-        <v>1.477743290873377</v>
+        <v>0.1616748117226159</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9992568867195359</v>
+        <v>1.520813528066384</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.008326946335359</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.299394869947605</v>
+        <v>1.2550028185413</v>
       </c>
       <c r="C22">
-        <v>0.3489988174007692</v>
+        <v>0.4059632436419065</v>
       </c>
       <c r="D22">
-        <v>0.06397907130133973</v>
+        <v>0.086126914565817</v>
       </c>
       <c r="E22">
-        <v>0.5926010635789538</v>
+        <v>0.5859162891383676</v>
       </c>
       <c r="F22">
-        <v>1.23762930655738</v>
+        <v>0.917569768639467</v>
       </c>
       <c r="G22">
-        <v>1.119715407175406</v>
+        <v>0.9811411945682664</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.005699339920408164</v>
+        <v>0.005324523787823665</v>
       </c>
       <c r="J22">
-        <v>0.6781772906471843</v>
+        <v>0.3558219377645457</v>
       </c>
       <c r="K22">
-        <v>0.6707046365495302</v>
+        <v>0.4433387106785389</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1816716707035155</v>
       </c>
       <c r="M22">
-        <v>1.586171586524785</v>
+        <v>0.1660058192907208</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.077765564899046</v>
+        <v>1.626929117373237</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.085821359358725</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.252242234315787</v>
+        <v>1.208559099327601</v>
       </c>
       <c r="C23">
-        <v>0.3348605232698674</v>
+        <v>0.393044338494974</v>
       </c>
       <c r="D23">
-        <v>0.06282075168982715</v>
+        <v>0.08203838586916135</v>
       </c>
       <c r="E23">
-        <v>0.5689733759015425</v>
+        <v>0.562401067924057</v>
       </c>
       <c r="F23">
-        <v>1.206820059799014</v>
+        <v>0.9190836570061975</v>
       </c>
       <c r="G23">
-        <v>1.093037976522297</v>
+        <v>0.9287970572496249</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.004601825257287473</v>
+        <v>0.004435166761421527</v>
       </c>
       <c r="J23">
-        <v>0.6682181813746553</v>
+        <v>0.4033535654336475</v>
       </c>
       <c r="K23">
-        <v>0.6615328073822582</v>
+        <v>0.4526721748242011</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1874010604651097</v>
       </c>
       <c r="M23">
-        <v>1.527067307543604</v>
+        <v>0.1659398483238093</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.03550787291033</v>
+        <v>1.570048385298662</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.044352675338423</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.072390679958744</v>
+        <v>1.034634249030177</v>
       </c>
       <c r="C24">
-        <v>0.2849506266794606</v>
+        <v>0.3412874441371798</v>
       </c>
       <c r="D24">
-        <v>0.05883038859046508</v>
+        <v>0.07009896491798173</v>
       </c>
       <c r="E24">
-        <v>0.4813038701452257</v>
+        <v>0.4755512020680044</v>
       </c>
       <c r="F24">
-        <v>1.085335417602209</v>
+        <v>0.8909093671224042</v>
       </c>
       <c r="G24">
-        <v>0.986217769582737</v>
+        <v>0.7763253529811749</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001935003312504513</v>
+        <v>0.00226321487289205</v>
       </c>
       <c r="J24">
-        <v>0.6276331087153864</v>
+        <v>0.5343558951422125</v>
       </c>
       <c r="K24">
-        <v>0.621851904827551</v>
+        <v>0.4687424928545809</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2031587341085022</v>
       </c>
       <c r="M24">
-        <v>1.30670840602096</v>
+        <v>0.1580842989208904</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8781975148647376</v>
+        <v>1.352314205316503</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8884281535221774</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8793488151011104</v>
+        <v>0.8532582120399752</v>
       </c>
       <c r="C25">
-        <v>0.2328991769640538</v>
+        <v>0.2750287921332557</v>
       </c>
       <c r="D25">
-        <v>0.05448730611403008</v>
+        <v>0.06202347221107374</v>
       </c>
       <c r="E25">
-        <v>0.3903908025573273</v>
+        <v>0.3861922397548838</v>
       </c>
       <c r="F25">
-        <v>0.9599068935416852</v>
+        <v>0.8065743414268525</v>
       </c>
       <c r="G25">
-        <v>0.8763049963862954</v>
+        <v>0.6997780608711537</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001086877141496245</v>
+        <v>0.001301067857477634</v>
       </c>
       <c r="J25">
-        <v>0.5867407408212415</v>
+        <v>0.5215970848586693</v>
       </c>
       <c r="K25">
-        <v>0.5814378686588952</v>
+        <v>0.4559053231771983</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2094689121031088</v>
       </c>
       <c r="M25">
-        <v>1.071643355706783</v>
+        <v>0.1396331198084013</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7125512498673672</v>
+        <v>1.10960108145477</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7214688857285623</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
